--- a/public/plantillas_satisfaccion/alumnado-master-satisfaccion.xlsx
+++ b/public/plantillas_satisfaccion/alumnado-master-satisfaccion.xlsx
@@ -939,6 +939,114 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,126 +1056,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,20 +1086,14 @@
     <xf numFmtId="2" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1410,7 +1410,7 @@
   <dimension ref="A2:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1430,39 +1430,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1474,26 +1474,26 @@
     <row r="5" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="67"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
       <c r="L5" s="61" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="10"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -1509,10 +1509,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1528,10 +1528,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1547,10 +1547,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1566,10 +1566,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1585,10 +1585,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1604,10 +1604,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="41"/>
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
@@ -1623,8 +1623,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -1662,79 +1662,79 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="98" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="86" t="s">
+      <c r="G17" s="82"/>
+      <c r="H17" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="100" t="s">
+      <c r="I17" s="85"/>
+      <c r="J17" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="101"/>
+      <c r="K17" s="89"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="55"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="110"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="57"/>
       <c r="F19" s="58"/>
       <c r="G19" s="59">
         <f>E19*J19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="51">
         <f>SUM(E19:E19)</f>
         <v>0</v>
@@ -1746,51 +1746,51 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <f>SUM(I19:I19)</f>
+        <f>SUM(H19:H19)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="112">
+      <c r="J20" s="94">
         <f>SUM(J19:J19)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="97"/>
+      <c r="K20" s="95"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="93" t="s">
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="76" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="53">
         <f>I20</f>
         <v>0</v>
       </c>
-      <c r="J21" s="106" t="e">
+      <c r="J21" s="108" t="e">
         <f>100*((I21))/I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="107"/>
+      <c r="K21" s="109"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="105"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="5">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="85"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
@@ -2510,16 +2510,15 @@
     <row r="108" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="D21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C16:K16"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="C17:D18"/>
@@ -2527,15 +2526,16 @@
     <mergeCell ref="F17:G18"/>
     <mergeCell ref="H17:I18"/>
     <mergeCell ref="J17:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="D21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
